--- a/biology/Zoologie/Chlamys_aldrovandi/Chlamys_aldrovandi.xlsx
+++ b/biology/Zoologie/Chlamys_aldrovandi/Chlamys_aldrovandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlamys aldrovandi[1] est une espèce éteinte de mollusques bivalves ayant vécu au Miocène.
-Il peut se trouver dans les faluns de Touraine ou de Bretagne[2]. Cette espèce était restée obscure et avait été à peu près oubliée, lorsque Eugène Eudes-Deslongchamps en communiqua le type de la collection Defrance à l'abbé Bardin qui en publia, en 1882, une description détaillée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlamys aldrovandi est une espèce éteinte de mollusques bivalves ayant vécu au Miocène.
+Il peut se trouver dans les faluns de Touraine ou de Bretagne. Cette espèce était restée obscure et avait été à peu près oubliée, lorsque Eugène Eudes-Deslongchamps en communiqua le type de la collection Defrance à l'abbé Bardin qui en publia, en 1882, une description détaillée.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Louis Marin Defrance décrit Chlamys aldrovandi comme une « Coquille oblongue, portant sur chaque valve neuf côtes striées profondément, ainsi que l'intervalle qui les sépare. Longueur neuf lignes. On la trouve à Aubigné près d'Angers ». 
 Bardin indique une « Coquille inéquivalve, subéquilatérale, plus longue que large, déprimée, presque plane, munie de 9 côtes assez fortes et saillantes. Les côtes de la valve droite sont un peu aplaties, couvertes de 4-6 stries longitudinales, et assez sensiblement divisées en deux parties par une strie médiane plus profonde que les autres. Les côtes de la valve gauche ou supérieure sont arrondies, striées longitudinalement, les cinq médianes, au moins, munies de cinq à six stries; les intervalles égaux et aplatis portent aussi, dans les échantillons bien conservés, trois stries longitudinales garnies de petites écailles, imbriquées comme dans la valve droite ; souvent, les exemplaires sont assez mal conservés, et alors les stries n'apparaissent que confusément, et seulement près du bord palléal. Sur cette même valve, les côtes et les intervalles sont recouverts d'un tissu très fin et élégant de stries obliques qui s'entrecroisent, surtout dans la région voisine du bord cardinal. Sur la valve droite on ne peut apercevoir ce tissu de stries obliques, mais les stries longitudinales des côtes paraissent finement crénelées. Les oreillettes sont inégales et ornées de petites côtes squamuleuses. La grande oreillette de la valve inférieure esl fortement dilatée, tandis que la postérieure est comme tronquée. Dimensions du bord cardinal au bord palléal, 30 millim. ; du côté buccal au côté anal., 25 millim. ».
